--- a/3d/bike.xlsx
+++ b/3d/bike.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d-single-material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DF41E45-4A57-474F-B04B-A99154614CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF73A8D4-ED52-4D9A-BE43-287F966081A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
   <sheets>
     <sheet name="Options" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="46">
   <si>
     <t>ForceX</t>
   </si>
@@ -129,6 +129,51 @@
   </si>
   <si>
     <t>0.5, 0.6, 0</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Number of elements in x direction</t>
+  </si>
+  <si>
+    <t>Number of elements in y direction</t>
+  </si>
+  <si>
+    <t>Number of elements in z direction</t>
+  </si>
+  <si>
+    <t>Volume constraint</t>
+  </si>
+  <si>
+    <t>CostFraction</t>
+  </si>
+  <si>
+    <t>Cost constraint</t>
+  </si>
+  <si>
+    <t>Penalty factor for SIMP</t>
+  </si>
+  <si>
+    <t>Maximum number of design cycles</t>
+  </si>
+  <si>
+    <t>Minimum move in optimality criterion process</t>
+  </si>
+  <si>
+    <t>1: Only density | 2 and 3: Projection with eta and beta</t>
+  </si>
+  <si>
+    <t>FilterBC</t>
+  </si>
+  <si>
+    <t>0: Constant | 1: Reflect | 2: Nearest | 3: Mirror | 4: Wrap</t>
+  </si>
+  <si>
+    <t>Filter radius</t>
+  </si>
+  <si>
+    <t>Projection parameter</t>
   </si>
 </sst>
 </file>
@@ -178,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -187,11 +232,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,100 +573,158 @@
     <col min="2" max="2" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="7">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="C4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="7">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="C5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="C7" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="7">
+        <v>200</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B10" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="C10" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="B13" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B14" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.2</v>
+      <c r="C14" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -625,7 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D73A997-7B04-44B2-BBB4-C23AFDAA7229}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -664,10 +776,10 @@
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="2">
@@ -687,10 +799,10 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="2">
@@ -710,10 +822,10 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C4" s="2">
@@ -733,10 +845,10 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="2">
@@ -756,10 +868,10 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="2"/>
@@ -779,10 +891,10 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="2"/>
@@ -802,10 +914,10 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2"/>
@@ -825,8 +937,8 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -838,8 +950,8 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -851,8 +963,8 @@
       <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -864,8 +976,8 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -877,8 +989,8 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -890,8 +1002,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -939,8 +1051,8 @@
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
